--- a/NN_Images/Output_SelfGenerated.xlsx
+++ b/NN_Images/Output_SelfGenerated.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagni\Documents\Personal Files\CS7641\Assignment2\NN_Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35F7F02-4A79-46B7-9B31-957D19D84699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB4F80C-63F2-4F68-ACD9-2E31809E95EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="22">
   <si>
     <t>i</t>
   </si>
@@ -88,6 +89,9 @@
   <si>
     <t>SA</t>
   </si>
+  <si>
+    <t>(All)</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -155,13 +159,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -171,39 +179,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -216,6 +191,1511 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Output_SelfGenerated.xlsx]Sheet3!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>genetic_alg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$5:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.86655309483248155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86663826161056667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86682808716707027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86813970064148249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86567590740211486</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8662873399715505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86739780658025922</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86700913242009137</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86565887050770107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86576989124212933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D5B2-4671-8F3C-E1AC4116342F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gradient_descent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.86589169265664878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86557005104934781</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86461145049012655</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8660144619310931</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86653442901671862</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86637381323508589</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86653442901671862</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86637381323508589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86649659863945572</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86653442901671862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D5B2-4671-8F3C-E1AC4116342F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random_hill_climb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$5:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.86653442901671862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86445012787723785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86653442901671862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8058690744920992E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86637381323508589</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8208269525268002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86653442901671862</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74711506758984514</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84136722173531986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D5B2-4671-8F3C-E1AC4116342F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simulated_annealing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.36671649227703051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86320284697508898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86653442901671862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86653442901671862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84664723032069966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85697758496023124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82301551438469644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84334511189634864</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86653442901671862</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86653442901671862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D5B2-4671-8F3C-E1AC4116342F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="876044688"/>
+        <c:axId val="614557488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="876044688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614557488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="614557488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="876044688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184BC3D2-0268-DA34-41A5-8A0007617B6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -243,7 +1723,18 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Itterations" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="1000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="1000" count="10">
+        <n v="100"/>
+        <n v="200"/>
+        <n v="300"/>
+        <n v="400"/>
+        <n v="500"/>
+        <n v="600"/>
+        <n v="700"/>
+        <n v="800"/>
+        <n v="900"/>
+        <n v="1000"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="train_accuracy" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.2352083333333333" maxValue="0.77166666666666661"/>
@@ -275,7 +1766,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="100"/>
+    <x v="0"/>
     <n v="0.24437500000000001"/>
     <n v="0.2475"/>
     <n v="0.78547883033752441"/>
@@ -286,7 +1777,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="200"/>
+    <x v="1"/>
     <n v="0.76458333333333328"/>
     <n v="0.76416666666666666"/>
     <n v="1.577356100082397"/>
@@ -297,7 +1788,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="300"/>
+    <x v="2"/>
     <n v="0.23854166666666671"/>
     <n v="0.23916666666666669"/>
     <n v="2.3864703178405762"/>
@@ -308,7 +1799,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="400"/>
+    <x v="3"/>
     <n v="0.23541666666666669"/>
     <n v="0.23583333333333331"/>
     <n v="1.9241025447845459"/>
@@ -319,7 +1810,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="500"/>
+    <x v="4"/>
     <n v="0.23583333333333331"/>
     <n v="0.24083333333333329"/>
     <n v="4.1514124870300293"/>
@@ -330,7 +1821,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="600"/>
+    <x v="5"/>
     <n v="0.53291666666666671"/>
     <n v="0.54666666666666663"/>
     <n v="5.7602126598358154"/>
@@ -341,7 +1832,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="700"/>
+    <x v="6"/>
     <n v="0.23541666666666669"/>
     <n v="0.23583333333333331"/>
     <n v="5.2689323425292969"/>
@@ -352,7 +1843,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="800"/>
+    <x v="7"/>
     <n v="0.23541666666666669"/>
     <n v="0.23583333333333331"/>
     <n v="6.1469743251800537"/>
@@ -363,7 +1854,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="900"/>
+    <x v="8"/>
     <n v="0.6333333333333333"/>
     <n v="0.6283333333333333"/>
     <n v="6.9570412635803223"/>
@@ -374,7 +1865,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1000"/>
+    <x v="9"/>
     <n v="0.45708333333333329"/>
     <n v="0.46416666666666673"/>
     <n v="7.9622087478637704"/>
@@ -385,7 +1876,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="100"/>
+    <x v="0"/>
     <n v="0.76458333333333328"/>
     <n v="0.76416666666666666"/>
     <n v="0.8485875129699707"/>
@@ -396,7 +1887,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="200"/>
+    <x v="1"/>
     <n v="0.76395833333333329"/>
     <n v="0.76500000000000001"/>
     <n v="1.572107315063477"/>
@@ -407,7 +1898,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="300"/>
+    <x v="2"/>
     <n v="0.75916666666666666"/>
     <n v="0.75749999999999995"/>
     <n v="2.3070917129516602"/>
@@ -418,7 +1909,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="400"/>
+    <x v="3"/>
     <n v="0.76416666666666666"/>
     <n v="0.76166666666666671"/>
     <n v="3.1027438640594478"/>
@@ -429,7 +1920,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="500"/>
+    <x v="4"/>
     <n v="0.2377083333333333"/>
     <n v="0.23833333333333331"/>
     <n v="3.8217697143554692"/>
@@ -440,7 +1931,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="600"/>
+    <x v="5"/>
     <n v="0.76437500000000003"/>
     <n v="0.76416666666666666"/>
     <n v="4.6630463600158691"/>
@@ -451,7 +1942,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="700"/>
+    <x v="6"/>
     <n v="0.25958333333333328"/>
     <n v="0.255"/>
     <n v="5.121596097946167"/>
@@ -462,7 +1953,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="800"/>
+    <x v="7"/>
     <n v="0.23541666666666669"/>
     <n v="0.23583333333333331"/>
     <n v="6.145655632019043"/>
@@ -473,7 +1964,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="900"/>
+    <x v="8"/>
     <n v="0.296875"/>
     <n v="0.29833333333333328"/>
     <n v="7.2143898010253906"/>
@@ -484,7 +1975,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1000"/>
+    <x v="9"/>
     <n v="0.71833333333333338"/>
     <n v="0.71083333333333332"/>
     <n v="7.192652702331543"/>
@@ -495,7 +1986,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="100"/>
+    <x v="0"/>
     <n v="0.76458333333333328"/>
     <n v="0.76416666666666666"/>
     <n v="0.77346563339233398"/>
@@ -506,7 +1997,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="200"/>
+    <x v="1"/>
     <n v="0.76458333333333328"/>
     <n v="0.76416666666666666"/>
     <n v="1.4896697998046879"/>
@@ -517,7 +2008,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="300"/>
+    <x v="2"/>
     <n v="0.76270833333333332"/>
     <n v="0.76416666666666666"/>
     <n v="2.0864205360412602"/>
@@ -528,7 +2019,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="400"/>
+    <x v="3"/>
     <n v="0.76458333333333328"/>
     <n v="0.76416666666666666"/>
     <n v="2.9814515113830571"/>
@@ -539,7 +2030,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="500"/>
+    <x v="4"/>
     <n v="0.23541666666666669"/>
     <n v="0.23583333333333331"/>
     <n v="3.7917451858520508"/>
@@ -550,7 +2041,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="600"/>
+    <x v="5"/>
     <n v="0.76479166666666665"/>
     <n v="0.76416666666666666"/>
     <n v="4.629927396774292"/>
@@ -561,7 +2052,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="700"/>
+    <x v="6"/>
     <n v="0.23541666666666669"/>
     <n v="0.23583333333333331"/>
     <n v="5.3999919891357422"/>
@@ -572,7 +2063,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="800"/>
+    <x v="7"/>
     <n v="0.76458333333333328"/>
     <n v="0.76416666666666666"/>
     <n v="6.0095338821411133"/>
@@ -583,7 +2074,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="900"/>
+    <x v="8"/>
     <n v="0.23541666666666669"/>
     <n v="0.23666666666666669"/>
     <n v="6.8373522758483887"/>
@@ -594,7 +2085,7 @@
     <n v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="1000"/>
+    <x v="9"/>
     <n v="0.73583333333333334"/>
     <n v="0.73166666666666669"/>
     <n v="7.889136791229248"/>
@@ -605,7 +2096,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="100"/>
+    <x v="0"/>
     <n v="0.37208333333333332"/>
     <n v="0.40666666666666668"/>
     <n v="1.126121997833252"/>
@@ -616,7 +2107,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="200"/>
+    <x v="1"/>
     <n v="0.68708333333333338"/>
     <n v="0.69833333333333336"/>
     <n v="2.2459466457366939"/>
@@ -627,7 +2118,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="300"/>
+    <x v="2"/>
     <n v="0.28125"/>
     <n v="0.29166666666666669"/>
     <n v="3.3167562484741211"/>
@@ -638,7 +2129,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="400"/>
+    <x v="3"/>
     <n v="0.25479166666666669"/>
     <n v="0.26666666666666672"/>
     <n v="4.2649869918823242"/>
@@ -649,7 +2140,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="500"/>
+    <x v="4"/>
     <n v="0.23666666666666669"/>
     <n v="0.23666666666666669"/>
     <n v="5.4145770072937012"/>
@@ -660,7 +2151,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="600"/>
+    <x v="5"/>
     <n v="0.74958333333333338"/>
     <n v="0.74416666666666664"/>
     <n v="6.6047818660736084"/>
@@ -671,7 +2162,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="700"/>
+    <x v="6"/>
     <n v="0.70187500000000003"/>
     <n v="0.6958333333333333"/>
     <n v="7.7872047424316406"/>
@@ -682,7 +2173,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="800"/>
+    <x v="7"/>
     <n v="0.23541666666666669"/>
     <n v="0.23583333333333331"/>
     <n v="8.7959566116333008"/>
@@ -693,7 +2184,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="900"/>
+    <x v="8"/>
     <n v="0.236875"/>
     <n v="0.23749999999999999"/>
     <n v="9.6555886268615723"/>
@@ -704,7 +2195,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1000"/>
+    <x v="9"/>
     <n v="0.56125000000000003"/>
     <n v="0.57166666666666666"/>
     <n v="10.976104974746701"/>
@@ -715,7 +2206,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="100"/>
+    <x v="0"/>
     <n v="0.260625"/>
     <n v="0.24833333333333329"/>
     <n v="1.0755684375762939"/>
@@ -726,7 +2217,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="200"/>
+    <x v="1"/>
     <n v="0.7622916666666667"/>
     <n v="0.7583333333333333"/>
     <n v="2.089150190353394"/>
@@ -737,7 +2228,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="300"/>
+    <x v="2"/>
     <n v="0.76437500000000003"/>
     <n v="0.76416666666666666"/>
     <n v="3.3237297534942631"/>
@@ -748,7 +2239,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="400"/>
+    <x v="3"/>
     <n v="0.26"/>
     <n v="0.2475"/>
     <n v="4.4950387477874756"/>
@@ -759,7 +2250,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="500"/>
+    <x v="4"/>
     <n v="0.23541666666666669"/>
     <n v="0.23583333333333331"/>
     <n v="5.5907630920410156"/>
@@ -770,7 +2261,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="600"/>
+    <x v="5"/>
     <n v="0.23541666666666669"/>
     <n v="0.23583333333333331"/>
     <n v="6.3573791980743408"/>
@@ -781,7 +2272,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="700"/>
+    <x v="6"/>
     <n v="0.56437499999999996"/>
     <n v="0.58166666666666667"/>
     <n v="7.8545029163360596"/>
@@ -792,7 +2283,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="800"/>
+    <x v="7"/>
     <n v="0.72666666666666668"/>
     <n v="0.73333333333333328"/>
     <n v="9.1052675247192383"/>
@@ -803,7 +2294,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="900"/>
+    <x v="8"/>
     <n v="0.27104166666666668"/>
     <n v="0.28416666666666668"/>
     <n v="9.8602521419525146"/>
@@ -814,7 +2305,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1000"/>
+    <x v="9"/>
     <n v="0.76458333333333328"/>
     <n v="0.76416666666666666"/>
     <n v="10.49294686317444"/>
@@ -825,7 +2316,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="100"/>
+    <x v="0"/>
     <n v="0.23541666666666669"/>
     <n v="0.23583333333333331"/>
     <n v="1.1340236663818359"/>
@@ -836,7 +2327,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="200"/>
+    <x v="1"/>
     <n v="0.74333333333333329"/>
     <n v="0.74"/>
     <n v="2.247282981872559"/>
@@ -847,7 +2338,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="300"/>
+    <x v="2"/>
     <n v="0.26750000000000002"/>
     <n v="0.27166666666666672"/>
     <n v="3.1440410614013672"/>
@@ -858,7 +2349,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="400"/>
+    <x v="3"/>
     <n v="0.76458333333333328"/>
     <n v="0.76416666666666666"/>
     <n v="4.371732234954834"/>
@@ -869,7 +2360,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="500"/>
+    <x v="4"/>
     <n v="0.739375"/>
     <n v="0.73833333333333329"/>
     <n v="5.4549112319946289"/>
@@ -880,7 +2371,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="600"/>
+    <x v="5"/>
     <n v="0.29291666666666671"/>
     <n v="0.3"/>
     <n v="6.6072711944580078"/>
@@ -891,7 +2382,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="700"/>
+    <x v="6"/>
     <n v="0.33041666666666669"/>
     <n v="0.32416666666666671"/>
     <n v="7.2497754096984863"/>
@@ -902,7 +2393,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="800"/>
+    <x v="7"/>
     <n v="0.2352083333333333"/>
     <n v="0.23583333333333331"/>
     <n v="8.571303129196167"/>
@@ -913,7 +2404,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="900"/>
+    <x v="8"/>
     <n v="0.76458333333333328"/>
     <n v="0.76416666666666666"/>
     <n v="9.7938852310180664"/>
@@ -924,7 +2415,7 @@
     <n v="1"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="1000"/>
+    <x v="9"/>
     <n v="0.76458333333333328"/>
     <n v="0.76500000000000001"/>
     <n v="11.259574413299561"/>
@@ -935,7 +2426,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="100"/>
+    <x v="0"/>
     <n v="0.76583333333333337"/>
     <n v="0.76333333333333331"/>
     <n v="71.813919067382813"/>
@@ -946,7 +2437,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="200"/>
+    <x v="1"/>
     <n v="0.76645833333333335"/>
     <n v="0.755"/>
     <n v="140.05961012840271"/>
@@ -957,7 +2448,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="300"/>
+    <x v="2"/>
     <n v="0.76749999999999996"/>
     <n v="0.76333333333333331"/>
     <n v="212.81645822525019"/>
@@ -968,7 +2459,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="400"/>
+    <x v="3"/>
     <n v="0.77"/>
     <n v="0.76249999999999996"/>
     <n v="279.47552084922791"/>
@@ -979,7 +2470,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="500"/>
+    <x v="4"/>
     <n v="0.76749999999999996"/>
     <n v="0.76500000000000001"/>
     <n v="349.70519518852228"/>
@@ -990,7 +2481,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="600"/>
+    <x v="5"/>
     <n v="0.77166666666666661"/>
     <n v="0.76916666666666667"/>
     <n v="418.07027363777161"/>
@@ -1001,7 +2492,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="700"/>
+    <x v="6"/>
     <n v="0.76812499999999995"/>
     <n v="0.76166666666666671"/>
     <n v="489.85376977920532"/>
@@ -1012,7 +2503,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="800"/>
+    <x v="7"/>
     <n v="0.76937500000000003"/>
     <n v="0.75749999999999995"/>
     <n v="555.22035360336304"/>
@@ -1023,7 +2514,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="900"/>
+    <x v="8"/>
     <n v="0.76937500000000003"/>
     <n v="0.76666666666666672"/>
     <n v="629.07648134231567"/>
@@ -1034,7 +2525,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1000"/>
+    <x v="9"/>
     <n v="0.76937500000000003"/>
     <n v="0.76666666666666672"/>
     <n v="698.08898067474365"/>
@@ -1045,7 +2536,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="100"/>
+    <x v="0"/>
     <n v="0.76604166666666662"/>
     <n v="0.76500000000000001"/>
     <n v="70.34765100479126"/>
@@ -1056,7 +2547,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="200"/>
+    <x v="1"/>
     <n v="0.76708333333333334"/>
     <n v="0.76500000000000001"/>
     <n v="139.67413377761841"/>
@@ -1067,7 +2558,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="300"/>
+    <x v="2"/>
     <n v="0.76645833333333335"/>
     <n v="0.76583333333333337"/>
     <n v="211.98402190208441"/>
@@ -1078,7 +2569,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="400"/>
+    <x v="3"/>
     <n v="0.77"/>
     <n v="0.76749999999999996"/>
     <n v="280.01292634010309"/>
@@ -1089,7 +2580,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="500"/>
+    <x v="4"/>
     <n v="0.76645833333333335"/>
     <n v="0.76333333333333331"/>
     <n v="352.53714179992681"/>
@@ -1100,7 +2591,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="600"/>
+    <x v="5"/>
     <n v="0.76770833333333333"/>
     <n v="0.76249999999999996"/>
     <n v="415.63704872131348"/>
@@ -1111,7 +2602,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="700"/>
+    <x v="6"/>
     <n v="0.77083333333333337"/>
     <n v="0.76333333333333331"/>
     <n v="488.11804866790771"/>
@@ -1122,7 +2613,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="800"/>
+    <x v="7"/>
     <n v="0.76770833333333333"/>
     <n v="0.76416666666666666"/>
     <n v="554.65868306159973"/>
@@ -1133,7 +2624,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="900"/>
+    <x v="8"/>
     <n v="0.76791666666666669"/>
     <n v="0.76333333333333331"/>
     <n v="642.07536220550537"/>
@@ -1144,7 +2635,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1000"/>
+    <x v="9"/>
     <n v="0.76812499999999995"/>
     <n v="0.7583333333333333"/>
     <n v="729.86787533760071"/>
@@ -1155,7 +2646,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="100"/>
+    <x v="0"/>
     <n v="0.76666666666666672"/>
     <n v="0.76500000000000001"/>
     <n v="70.111514568328857"/>
@@ -1166,7 +2657,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="200"/>
+    <x v="1"/>
     <n v="0.76854166666666668"/>
     <n v="0.76666666666666672"/>
     <n v="138.8689520359039"/>
@@ -1177,7 +2668,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="300"/>
+    <x v="2"/>
     <n v="0.76624999999999999"/>
     <n v="0.76500000000000001"/>
     <n v="208.95771503448489"/>
@@ -1188,7 +2679,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="400"/>
+    <x v="3"/>
     <n v="0.76687499999999997"/>
     <n v="0.76166666666666671"/>
     <n v="278.2565655708313"/>
@@ -1199,7 +2690,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="500"/>
+    <x v="4"/>
     <n v="0.76916666666666667"/>
     <n v="0.77083333333333337"/>
     <n v="350.87313008308411"/>
@@ -1210,7 +2701,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="600"/>
+    <x v="5"/>
     <n v="0.76645833333333335"/>
     <n v="0.75916666666666666"/>
     <n v="420.85823321342468"/>
@@ -1221,7 +2712,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="700"/>
+    <x v="6"/>
     <n v="0.76958333333333329"/>
     <n v="0.77166666666666661"/>
     <n v="487.78280925750732"/>
@@ -1232,7 +2723,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="800"/>
+    <x v="7"/>
     <n v="0.76916666666666667"/>
     <n v="0.76083333333333336"/>
     <n v="554.76701307296753"/>
@@ -1243,7 +2734,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="900"/>
+    <x v="8"/>
     <n v="0.76770833333333333"/>
     <n v="0.76"/>
     <n v="627.32689142227173"/>
@@ -1254,7 +2745,7 @@
     <n v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="1000"/>
+    <x v="9"/>
     <n v="0.77020833333333338"/>
     <n v="0.76"/>
     <n v="697.63308715820313"/>
@@ -1265,7 +2756,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="100"/>
+    <x v="0"/>
     <n v="0.73541666666666672"/>
     <n v="0.73"/>
     <n v="1.633777379989624"/>
@@ -1276,7 +2767,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="200"/>
+    <x v="1"/>
     <n v="0.76"/>
     <n v="0.75666666666666671"/>
     <n v="3.107488870620728"/>
@@ -1287,7 +2778,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="300"/>
+    <x v="2"/>
     <n v="0.76249999999999996"/>
     <n v="0.76249999999999996"/>
     <n v="4.6915724277496338"/>
@@ -1298,7 +2789,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="400"/>
+    <x v="3"/>
     <n v="0.23541666666666669"/>
     <n v="0.23666666666666669"/>
     <n v="6.6554939746856689"/>
@@ -1309,7 +2800,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="500"/>
+    <x v="4"/>
     <n v="0.71229166666666666"/>
     <n v="0.71583333333333332"/>
     <n v="8.1844358444213867"/>
@@ -1320,7 +2811,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="600"/>
+    <x v="5"/>
     <n v="0.76270833333333332"/>
     <n v="0.76249999999999996"/>
     <n v="9.7750518321990967"/>
@@ -1331,7 +2822,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="700"/>
+    <x v="6"/>
     <n v="0.47375"/>
     <n v="0.47833333333333328"/>
     <n v="11.33757448196411"/>
@@ -1342,7 +2833,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="800"/>
+    <x v="7"/>
     <n v="0.76416666666666666"/>
     <n v="0.76416666666666666"/>
     <n v="12.997749805450439"/>
@@ -1353,7 +2844,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="900"/>
+    <x v="8"/>
     <n v="0.76458333333333328"/>
     <n v="0.76333333333333331"/>
     <n v="14.671181678771971"/>
@@ -1364,7 +2855,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="1000"/>
+    <x v="9"/>
     <n v="0.76458333333333328"/>
     <n v="0.76416666666666666"/>
     <n v="16.195496320724491"/>
@@ -1375,7 +2866,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="100"/>
+    <x v="0"/>
     <n v="0.76375000000000004"/>
     <n v="0.76416666666666666"/>
     <n v="1.63782787322998"/>
@@ -1386,7 +2877,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="200"/>
+    <x v="1"/>
     <n v="0.76166666666666671"/>
     <n v="0.76166666666666671"/>
     <n v="3.25213623046875"/>
@@ -1397,7 +2888,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="300"/>
+    <x v="2"/>
     <n v="0.75458333333333338"/>
     <n v="0.76166666666666671"/>
     <n v="4.6743316650390616"/>
@@ -1408,7 +2899,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="400"/>
+    <x v="3"/>
     <n v="0.76354166666666667"/>
     <n v="0.76749999999999996"/>
     <n v="6.4056870937347412"/>
@@ -1419,7 +2910,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="500"/>
+    <x v="4"/>
     <n v="0.76437500000000003"/>
     <n v="0.76416666666666666"/>
     <n v="8.2283239364624023"/>
@@ -1430,7 +2921,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="600"/>
+    <x v="5"/>
     <n v="0.23541666666666669"/>
     <n v="0.23583333333333331"/>
     <n v="9.7611684799194336"/>
@@ -1441,7 +2932,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="700"/>
+    <x v="6"/>
     <n v="0.62687499999999996"/>
     <n v="0.62916666666666665"/>
     <n v="11.46822500228882"/>
@@ -1452,7 +2943,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="800"/>
+    <x v="7"/>
     <n v="0.54979166666666668"/>
     <n v="0.52833333333333332"/>
     <n v="13.040098905563349"/>
@@ -1463,7 +2954,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="900"/>
+    <x v="8"/>
     <n v="0.7427083333333333"/>
     <n v="0.76"/>
     <n v="14.667101144790649"/>
@@ -1474,7 +2965,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="1000"/>
+    <x v="9"/>
     <n v="0.76458333333333328"/>
     <n v="0.76416666666666666"/>
     <n v="16.322417259216309"/>
@@ -1485,7 +2976,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="100"/>
+    <x v="0"/>
     <n v="0.46812500000000001"/>
     <n v="0.48583333333333328"/>
     <n v="1.7104084491729741"/>
@@ -1496,7 +2987,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="200"/>
+    <x v="1"/>
     <n v="0.35895833333333332"/>
     <n v="0.36749999999999999"/>
     <n v="3.2643840312957759"/>
@@ -1507,7 +2998,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="300"/>
+    <x v="2"/>
     <n v="0.72354166666666664"/>
     <n v="0.71583333333333332"/>
     <n v="4.8713681697845459"/>
@@ -1518,7 +3009,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="400"/>
+    <x v="3"/>
     <n v="0.76375000000000004"/>
     <n v="0.76500000000000001"/>
     <n v="6.7091305255889893"/>
@@ -1529,7 +3020,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="500"/>
+    <x v="4"/>
     <n v="0.70291666666666663"/>
     <n v="0.72416666666666663"/>
     <n v="8.2176260948181152"/>
@@ -1540,7 +3031,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="600"/>
+    <x v="5"/>
     <n v="0.76437500000000003"/>
     <n v="0.76416666666666666"/>
     <n v="9.8036038875579834"/>
@@ -1551,7 +3042,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="700"/>
+    <x v="6"/>
     <n v="0.76458333333333328"/>
     <n v="0.76416666666666666"/>
     <n v="11.37390303611755"/>
@@ -1562,7 +3053,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="800"/>
+    <x v="7"/>
     <n v="0.41833333333333328"/>
     <n v="0.42249999999999999"/>
     <n v="12.8256676197052"/>
@@ -1573,7 +3064,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="900"/>
+    <x v="8"/>
     <n v="0.74604166666666671"/>
     <n v="0.73499999999999999"/>
     <n v="14.42408347129822"/>
@@ -1584,7 +3075,7 @@
     <n v="3"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="1000"/>
+    <x v="9"/>
     <n v="0.76395833333333329"/>
     <n v="0.76333333333333331"/>
     <n v="16.239832401275631"/>
@@ -1595,7 +3086,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7940D7A2-EBD2-46CF-AD06-C577B20DA8C7}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7940D7A2-EBD2-46CF-AD06-C577B20DA8C7}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -1664,20 +3155,197 @@
     <dataField name="Max of test_F1" fld="8" subtotal="max" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="3">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="2">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A875D9A7-1B5E-49B8-9DA3-42643401E7A7}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Max of test_F1" fld="8" subtotal="max" baseField="0" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1977,7 +3645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7DCF07-AD87-42FE-8754-E446BEF896FD}">
   <dimension ref="A3:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:A16"/>
     </sheetView>
   </sheetViews>
@@ -2137,6 +3805,286 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F349319-68A2-4A54-8E1F-E6658EC2B048}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>100</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.86655309483248155</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.86589169265664878</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.86653442901671862</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.36671649227703051</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.86655309483248155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>200</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.86663826161056667</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.86557005104934781</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.86320284697508898</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>300</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.86682808716707027</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.86461145049012655</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.86445012787723785</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.86653442901671862</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.86682808716707027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>400</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.86813970064148249</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.8660144619310931</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.86653442901671862</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.86653442901671862</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.86813970064148249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>500</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.86567590740211486</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.86653442901671862</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.8058690744920992E-2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.84664723032069966</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.86653442901671862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>600</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.8662873399715505</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.86637381323508589</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.86637381323508589</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.85697758496023124</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.86637381323508589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>700</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.86739780658025922</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.86653442901671862</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8.8208269525268002E-2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.82301551438469644</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.86739780658025922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>800</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.86700913242009137</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.86637381323508589</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.86653442901671862</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.84334511189634864</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.86700913242009137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>900</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.86565887050770107</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.86649659863945572</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.74711506758984514</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.86653442901671862</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.86653442901671862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.86576989124212933</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.86653442901671862</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.84136722173531986</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.86653442901671862</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.86653442901671862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.86813970064148249</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.86653442901671862</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.86653442901671862</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.86813970064148249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I121"/>
   <sheetViews>
